--- a/data/trans_orig/P16A_2_R3-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P16A_2_R3-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{F4B19601-E764-4438-A76C-AF386C464FAB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{1C4155B1-1544-4846-9E74-7C3EB8B238AB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{CED6EAE5-17BB-4885-A0CA-50FE32F8404D}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{674CA3E6-AB2D-48A5-B20A-DDD3130B7476}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="237" uniqueCount="145">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="237" uniqueCount="143">
   <si>
     <t>Población que ha consumido medicinas para el dolor en las dos últimas semanas en 2023 (Tasa respuesta: 100,0%)</t>
   </si>
@@ -74,28 +74,28 @@
     <t>11,1%</t>
   </si>
   <si>
-    <t>6,18%</t>
-  </si>
-  <si>
-    <t>16,71%</t>
+    <t>6,67%</t>
+  </si>
+  <si>
+    <t>17,3%</t>
   </si>
   <si>
     <t>18,93%</t>
   </si>
   <si>
-    <t>13,9%</t>
-  </si>
-  <si>
-    <t>26,42%</t>
+    <t>13,59%</t>
+  </si>
+  <si>
+    <t>25,58%</t>
   </si>
   <si>
     <t>14,89%</t>
   </si>
   <si>
-    <t>11,33%</t>
-  </si>
-  <si>
-    <t>19,27%</t>
+    <t>11,11%</t>
+  </si>
+  <si>
+    <t>19,22%</t>
   </si>
   <si>
     <t>No</t>
@@ -104,28 +104,28 @@
     <t>88,9%</t>
   </si>
   <si>
-    <t>83,29%</t>
-  </si>
-  <si>
-    <t>93,82%</t>
+    <t>82,7%</t>
+  </si>
+  <si>
+    <t>93,33%</t>
   </si>
   <si>
     <t>81,07%</t>
   </si>
   <si>
-    <t>73,58%</t>
-  </si>
-  <si>
-    <t>86,1%</t>
+    <t>74,42%</t>
+  </si>
+  <si>
+    <t>86,41%</t>
   </si>
   <si>
     <t>85,11%</t>
   </si>
   <si>
-    <t>80,73%</t>
-  </si>
-  <si>
-    <t>88,67%</t>
+    <t>80,78%</t>
+  </si>
+  <si>
+    <t>88,89%</t>
   </si>
   <si>
     <t>100%</t>
@@ -137,55 +137,55 @@
     <t>18,09%</t>
   </si>
   <si>
-    <t>13,47%</t>
-  </si>
-  <si>
-    <t>23,58%</t>
+    <t>13,21%</t>
+  </si>
+  <si>
+    <t>23,31%</t>
   </si>
   <si>
     <t>20,64%</t>
   </si>
   <si>
-    <t>16,41%</t>
-  </si>
-  <si>
-    <t>24,55%</t>
+    <t>16,68%</t>
+  </si>
+  <si>
+    <t>25,04%</t>
   </si>
   <si>
     <t>19,46%</t>
   </si>
   <si>
-    <t>16,45%</t>
-  </si>
-  <si>
-    <t>22,74%</t>
+    <t>16,27%</t>
+  </si>
+  <si>
+    <t>22,96%</t>
   </si>
   <si>
     <t>81,91%</t>
   </si>
   <si>
-    <t>76,42%</t>
-  </si>
-  <si>
-    <t>86,53%</t>
+    <t>76,69%</t>
+  </si>
+  <si>
+    <t>86,79%</t>
   </si>
   <si>
     <t>79,36%</t>
   </si>
   <si>
-    <t>75,45%</t>
-  </si>
-  <si>
-    <t>83,59%</t>
+    <t>74,96%</t>
+  </si>
+  <si>
+    <t>83,32%</t>
   </si>
   <si>
     <t>80,54%</t>
   </si>
   <si>
-    <t>77,26%</t>
-  </si>
-  <si>
-    <t>83,55%</t>
+    <t>77,04%</t>
+  </si>
+  <si>
+    <t>83,73%</t>
   </si>
   <si>
     <t>35/44</t>
@@ -194,55 +194,49 @@
     <t>17,67%</t>
   </si>
   <si>
-    <t>14,48%</t>
-  </si>
-  <si>
-    <t>21,43%</t>
+    <t>14,37%</t>
+  </si>
+  <si>
+    <t>21,13%</t>
   </si>
   <si>
     <t>28,46%</t>
   </si>
   <si>
-    <t>24,18%</t>
-  </si>
-  <si>
-    <t>32,07%</t>
-  </si>
-  <si>
-    <t>23,31%</t>
-  </si>
-  <si>
-    <t>20,67%</t>
-  </si>
-  <si>
-    <t>25,74%</t>
+    <t>24,11%</t>
+  </si>
+  <si>
+    <t>31,87%</t>
+  </si>
+  <si>
+    <t>20,88%</t>
+  </si>
+  <si>
+    <t>25,67%</t>
   </si>
   <si>
     <t>82,33%</t>
   </si>
   <si>
-    <t>78,57%</t>
-  </si>
-  <si>
-    <t>85,52%</t>
+    <t>78,87%</t>
+  </si>
+  <si>
+    <t>85,63%</t>
   </si>
   <si>
     <t>71,54%</t>
   </si>
   <si>
-    <t>67,93%</t>
-  </si>
-  <si>
-    <t>75,82%</t>
-  </si>
-  <si>
-    <t>76,69%</t>
-  </si>
-  <si>
-    <t>74,26%</t>
-  </si>
-  <si>
-    <t>79,33%</t>
+    <t>68,13%</t>
+  </si>
+  <si>
+    <t>75,89%</t>
+  </si>
+  <si>
+    <t>74,33%</t>
+  </si>
+  <si>
+    <t>79,12%</t>
   </si>
   <si>
     <t>45/54</t>
@@ -251,55 +245,55 @@
     <t>23,19%</t>
   </si>
   <si>
-    <t>17,31%</t>
-  </si>
-  <si>
-    <t>26,94%</t>
+    <t>18,04%</t>
+  </si>
+  <si>
+    <t>27,12%</t>
   </si>
   <si>
     <t>37,55%</t>
   </si>
   <si>
-    <t>34,4%</t>
-  </si>
-  <si>
-    <t>40,94%</t>
+    <t>34,52%</t>
+  </si>
+  <si>
+    <t>40,91%</t>
   </si>
   <si>
     <t>30,48%</t>
   </si>
   <si>
-    <t>27,31%</t>
-  </si>
-  <si>
-    <t>33,38%</t>
+    <t>26,75%</t>
+  </si>
+  <si>
+    <t>33,18%</t>
   </si>
   <si>
     <t>76,81%</t>
   </si>
   <si>
-    <t>73,06%</t>
-  </si>
-  <si>
-    <t>82,69%</t>
+    <t>72,88%</t>
+  </si>
+  <si>
+    <t>81,96%</t>
   </si>
   <si>
     <t>62,45%</t>
   </si>
   <si>
-    <t>59,06%</t>
-  </si>
-  <si>
-    <t>65,6%</t>
+    <t>59,09%</t>
+  </si>
+  <si>
+    <t>65,48%</t>
   </si>
   <si>
     <t>69,52%</t>
   </si>
   <si>
-    <t>66,62%</t>
-  </si>
-  <si>
-    <t>72,69%</t>
+    <t>66,82%</t>
+  </si>
+  <si>
+    <t>73,25%</t>
   </si>
   <si>
     <t>55/64</t>
@@ -308,55 +302,55 @@
     <t>29,41%</t>
   </si>
   <si>
-    <t>26,04%</t>
-  </si>
-  <si>
-    <t>33,05%</t>
+    <t>25,84%</t>
+  </si>
+  <si>
+    <t>33,2%</t>
   </si>
   <si>
     <t>43,44%</t>
   </si>
   <si>
-    <t>40,36%</t>
-  </si>
-  <si>
-    <t>46,67%</t>
+    <t>40,34%</t>
+  </si>
+  <si>
+    <t>46,62%</t>
   </si>
   <si>
     <t>36,41%</t>
   </si>
   <si>
-    <t>34,02%</t>
-  </si>
-  <si>
-    <t>39,0%</t>
+    <t>34,11%</t>
+  </si>
+  <si>
+    <t>38,95%</t>
   </si>
   <si>
     <t>70,59%</t>
   </si>
   <si>
-    <t>66,95%</t>
-  </si>
-  <si>
-    <t>73,96%</t>
+    <t>66,8%</t>
+  </si>
+  <si>
+    <t>74,16%</t>
   </si>
   <si>
     <t>56,56%</t>
   </si>
   <si>
-    <t>53,33%</t>
-  </si>
-  <si>
-    <t>59,64%</t>
+    <t>53,38%</t>
+  </si>
+  <si>
+    <t>59,66%</t>
   </si>
   <si>
     <t>63,59%</t>
   </si>
   <si>
-    <t>61,0%</t>
-  </si>
-  <si>
-    <t>65,98%</t>
+    <t>61,05%</t>
+  </si>
+  <si>
+    <t>65,89%</t>
   </si>
   <si>
     <t>65 y más</t>
@@ -365,109 +359,109 @@
     <t>32,71%</t>
   </si>
   <si>
-    <t>29,64%</t>
-  </si>
-  <si>
-    <t>35,49%</t>
+    <t>29,8%</t>
+  </si>
+  <si>
+    <t>35,81%</t>
   </si>
   <si>
     <t>64,32%</t>
   </si>
   <si>
-    <t>59,18%</t>
-  </si>
-  <si>
-    <t>74,67%</t>
+    <t>59,05%</t>
+  </si>
+  <si>
+    <t>75,75%</t>
   </si>
   <si>
     <t>51,53%</t>
   </si>
   <si>
-    <t>47,54%</t>
-  </si>
-  <si>
-    <t>61,37%</t>
+    <t>47,69%</t>
+  </si>
+  <si>
+    <t>62,79%</t>
   </si>
   <si>
     <t>67,29%</t>
   </si>
   <si>
-    <t>64,51%</t>
-  </si>
-  <si>
-    <t>70,36%</t>
+    <t>64,19%</t>
+  </si>
+  <si>
+    <t>70,2%</t>
   </si>
   <si>
     <t>35,68%</t>
   </si>
   <si>
-    <t>25,33%</t>
-  </si>
-  <si>
-    <t>40,82%</t>
+    <t>24,25%</t>
+  </si>
+  <si>
+    <t>40,95%</t>
   </si>
   <si>
     <t>48,47%</t>
   </si>
   <si>
-    <t>38,63%</t>
-  </si>
-  <si>
-    <t>52,46%</t>
+    <t>37,21%</t>
+  </si>
+  <si>
+    <t>52,31%</t>
   </si>
   <si>
     <t>23,35%</t>
   </si>
   <si>
-    <t>21,68%</t>
-  </si>
-  <si>
-    <t>25,31%</t>
+    <t>21,61%</t>
+  </si>
+  <si>
+    <t>25,0%</t>
   </si>
   <si>
     <t>40,26%</t>
   </si>
   <si>
-    <t>37,95%</t>
-  </si>
-  <si>
-    <t>46,06%</t>
+    <t>37,91%</t>
+  </si>
+  <si>
+    <t>46,47%</t>
   </si>
   <si>
     <t>32,33%</t>
   </si>
   <si>
-    <t>30,82%</t>
-  </si>
-  <si>
-    <t>35,79%</t>
+    <t>30,77%</t>
+  </si>
+  <si>
+    <t>36,55%</t>
   </si>
   <si>
     <t>76,65%</t>
   </si>
   <si>
-    <t>74,69%</t>
-  </si>
-  <si>
-    <t>78,32%</t>
+    <t>75,0%</t>
+  </si>
+  <si>
+    <t>78,39%</t>
   </si>
   <si>
     <t>59,74%</t>
   </si>
   <si>
-    <t>53,94%</t>
-  </si>
-  <si>
-    <t>62,05%</t>
+    <t>53,53%</t>
+  </si>
+  <si>
+    <t>62,09%</t>
   </si>
   <si>
     <t>67,67%</t>
   </si>
   <si>
-    <t>64,21%</t>
-  </si>
-  <si>
-    <t>69,18%</t>
+    <t>63,45%</t>
+  </si>
+  <si>
+    <t>69,23%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -882,7 +876,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{82FA3DA3-41F3-42AE-9702-6E34AC812885}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5EAC4E03-1197-493A-BBFD-7134DF0AC9B6}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1346,13 +1340,13 @@
         <v>272209</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="P10" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="P10" s="7" t="s">
+      <c r="Q10" s="7" t="s">
         <v>58</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>59</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -1367,13 +1361,13 @@
         <v>458790</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="F11" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="F11" s="7" t="s">
+      <c r="G11" s="7" t="s">
         <v>61</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>62</v>
       </c>
       <c r="H11" s="7">
         <v>592</v>
@@ -1382,13 +1376,13 @@
         <v>436701</v>
       </c>
       <c r="J11" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="K11" s="7" t="s">
         <v>63</v>
       </c>
-      <c r="K11" s="7" t="s">
+      <c r="L11" s="7" t="s">
         <v>64</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>65</v>
       </c>
       <c r="M11" s="7">
         <v>1041</v>
@@ -1397,13 +1391,13 @@
         <v>895490</v>
       </c>
       <c r="O11" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="P11" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="Q11" s="7" t="s">
         <v>66</v>
-      </c>
-      <c r="P11" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>68</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -1459,7 +1453,7 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
@@ -1471,13 +1465,13 @@
         <v>167879</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="G13" s="7" t="s">
         <v>70</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>71</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>72</v>
       </c>
       <c r="H13" s="7">
         <v>428</v>
@@ -1486,13 +1480,13 @@
         <v>280586</v>
       </c>
       <c r="J13" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="K13" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="L13" s="7" t="s">
         <v>73</v>
-      </c>
-      <c r="K13" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>75</v>
       </c>
       <c r="M13" s="7">
         <v>592</v>
@@ -1501,13 +1495,13 @@
         <v>448465</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="P13" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="Q13" s="7" t="s">
         <v>76</v>
-      </c>
-      <c r="P13" s="7" t="s">
-        <v>77</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>78</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -1522,13 +1516,13 @@
         <v>556111</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="G14" s="7" t="s">
         <v>79</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>80</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>81</v>
       </c>
       <c r="H14" s="7">
         <v>713</v>
@@ -1537,28 +1531,28 @@
         <v>466675</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="K14" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="L14" s="7" t="s">
         <v>82</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>83</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>84</v>
       </c>
       <c r="M14" s="7">
         <v>1214</v>
       </c>
       <c r="N14" s="7">
-        <v>1022787</v>
+        <v>1022786</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="P14" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="Q14" s="7" t="s">
         <v>85</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>86</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>87</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -1600,7 +1594,7 @@
         <v>1806</v>
       </c>
       <c r="N15" s="7">
-        <v>1471252</v>
+        <v>1471251</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>30</v>
@@ -1614,7 +1608,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -1626,13 +1620,13 @@
         <v>176501</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="G16" s="7" t="s">
         <v>89</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>90</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>91</v>
       </c>
       <c r="H16" s="7">
         <v>437</v>
@@ -1641,13 +1635,13 @@
         <v>259378</v>
       </c>
       <c r="J16" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="K16" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="L16" s="7" t="s">
         <v>92</v>
-      </c>
-      <c r="K16" s="7" t="s">
-        <v>93</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>94</v>
       </c>
       <c r="M16" s="7">
         <v>633</v>
@@ -1656,13 +1650,13 @@
         <v>435879</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="P16" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="Q16" s="7" t="s">
         <v>95</v>
-      </c>
-      <c r="P16" s="7" t="s">
-        <v>96</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>97</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -1677,13 +1671,13 @@
         <v>423656</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="G17" s="7" t="s">
         <v>98</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>99</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>100</v>
       </c>
       <c r="H17" s="7">
         <v>565</v>
@@ -1692,13 +1686,13 @@
         <v>337685</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="K17" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="L17" s="7" t="s">
         <v>101</v>
-      </c>
-      <c r="K17" s="7" t="s">
-        <v>102</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>103</v>
       </c>
       <c r="M17" s="7">
         <v>1032</v>
@@ -1707,13 +1701,13 @@
         <v>761341</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="P17" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="Q17" s="7" t="s">
         <v>104</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>105</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>106</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -1769,7 +1763,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -1781,13 +1775,13 @@
         <v>228240</v>
       </c>
       <c r="E19" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="G19" s="7" t="s">
         <v>108</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>109</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>110</v>
       </c>
       <c r="H19" s="7">
         <v>1038</v>
@@ -1796,13 +1790,13 @@
         <v>660373</v>
       </c>
       <c r="J19" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="K19" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="L19" s="7" t="s">
         <v>111</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>112</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>113</v>
       </c>
       <c r="M19" s="7">
         <v>1384</v>
@@ -1811,13 +1805,13 @@
         <v>888614</v>
       </c>
       <c r="O19" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="P19" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="Q19" s="7" t="s">
         <v>114</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>115</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>116</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -1829,16 +1823,16 @@
         <v>682</v>
       </c>
       <c r="D20" s="7">
-        <v>469514</v>
+        <v>469515</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="F20" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="G20" s="7" t="s">
         <v>117</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>118</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>119</v>
       </c>
       <c r="H20" s="7">
         <v>670</v>
@@ -1847,13 +1841,13 @@
         <v>366264</v>
       </c>
       <c r="J20" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="K20" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="L20" s="7" t="s">
         <v>120</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>122</v>
       </c>
       <c r="M20" s="7">
         <v>1352</v>
@@ -1862,13 +1856,13 @@
         <v>835778</v>
       </c>
       <c r="O20" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="P20" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="Q20" s="7" t="s">
         <v>123</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>124</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>125</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -1880,7 +1874,7 @@
         <v>1028</v>
       </c>
       <c r="D21" s="7">
-        <v>697754</v>
+        <v>697755</v>
       </c>
       <c r="E21" s="7" t="s">
         <v>30</v>
@@ -1936,13 +1930,13 @@
         <v>790501</v>
       </c>
       <c r="E22" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="F22" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="G22" s="7" t="s">
         <v>126</v>
-      </c>
-      <c r="F22" s="7" t="s">
-        <v>127</v>
-      </c>
-      <c r="G22" s="7" t="s">
-        <v>128</v>
       </c>
       <c r="H22" s="7">
         <v>2292</v>
@@ -1951,13 +1945,13 @@
         <v>1544306</v>
       </c>
       <c r="J22" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="K22" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="L22" s="7" t="s">
         <v>129</v>
-      </c>
-      <c r="K22" s="7" t="s">
-        <v>130</v>
-      </c>
-      <c r="L22" s="7" t="s">
-        <v>131</v>
       </c>
       <c r="M22" s="7">
         <v>3165</v>
@@ -1966,13 +1960,13 @@
         <v>2334807</v>
       </c>
       <c r="O22" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="P22" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="Q22" s="7" t="s">
         <v>132</v>
-      </c>
-      <c r="P22" s="7" t="s">
-        <v>133</v>
-      </c>
-      <c r="Q22" s="7" t="s">
-        <v>134</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -1987,13 +1981,13 @@
         <v>2594727</v>
       </c>
       <c r="E23" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="F23" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="G23" s="7" t="s">
         <v>135</v>
-      </c>
-      <c r="F23" s="7" t="s">
-        <v>136</v>
-      </c>
-      <c r="G23" s="7" t="s">
-        <v>137</v>
       </c>
       <c r="H23" s="7">
         <v>3075</v>
@@ -2002,28 +1996,28 @@
         <v>2291275</v>
       </c>
       <c r="J23" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="K23" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="L23" s="7" t="s">
         <v>138</v>
-      </c>
-      <c r="K23" s="7" t="s">
-        <v>139</v>
-      </c>
-      <c r="L23" s="7" t="s">
-        <v>140</v>
       </c>
       <c r="M23" s="7">
         <v>5578</v>
       </c>
       <c r="N23" s="7">
-        <v>4886002</v>
+        <v>4886001</v>
       </c>
       <c r="O23" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="P23" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="Q23" s="7" t="s">
         <v>141</v>
-      </c>
-      <c r="P23" s="7" t="s">
-        <v>142</v>
-      </c>
-      <c r="Q23" s="7" t="s">
-        <v>143</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -2065,7 +2059,7 @@
         <v>8743</v>
       </c>
       <c r="N24" s="7">
-        <v>7220809</v>
+        <v>7220808</v>
       </c>
       <c r="O24" s="7" t="s">
         <v>30</v>
@@ -2079,7 +2073,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P16A_2_R3-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P16A_2_R3-Edad-trans_orig.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{1C4155B1-1544-4846-9E74-7C3EB8B238AB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{657123E9-A09A-4865-AC47-4990F90F5252}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{674CA3E6-AB2D-48A5-B20A-DDD3130B7476}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{59CDC764-1042-43E1-880F-92850B88BB0A}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -876,7 +876,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5EAC4E03-1197-493A-BBFD-7134DF0AC9B6}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2EEDACB2-49E8-4DD7-B4E1-1F1042A2A424}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">

--- a/data/trans_orig/P16A_2_R3-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P16A_2_R3-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{657123E9-A09A-4865-AC47-4990F90F5252}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{FD43D1BD-B997-4C82-BCCB-D5A6F4E377A3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{59CDC764-1042-43E1-880F-92850B88BB0A}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{5BF22FF4-F1B5-4FED-80F6-4C34109CB476}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="237" uniqueCount="143">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="237" uniqueCount="145">
   <si>
     <t>Población que ha consumido medicinas para el dolor en las dos últimas semanas en 2023 (Tasa respuesta: 100,0%)</t>
   </si>
@@ -74,28 +74,28 @@
     <t>11,1%</t>
   </si>
   <si>
-    <t>6,67%</t>
-  </si>
-  <si>
-    <t>17,3%</t>
+    <t>6,18%</t>
+  </si>
+  <si>
+    <t>16,71%</t>
   </si>
   <si>
     <t>18,93%</t>
   </si>
   <si>
-    <t>13,59%</t>
-  </si>
-  <si>
-    <t>25,58%</t>
+    <t>13,9%</t>
+  </si>
+  <si>
+    <t>26,42%</t>
   </si>
   <si>
     <t>14,89%</t>
   </si>
   <si>
-    <t>11,11%</t>
-  </si>
-  <si>
-    <t>19,22%</t>
+    <t>11,33%</t>
+  </si>
+  <si>
+    <t>19,27%</t>
   </si>
   <si>
     <t>No</t>
@@ -104,28 +104,28 @@
     <t>88,9%</t>
   </si>
   <si>
-    <t>82,7%</t>
-  </si>
-  <si>
-    <t>93,33%</t>
+    <t>83,29%</t>
+  </si>
+  <si>
+    <t>93,82%</t>
   </si>
   <si>
     <t>81,07%</t>
   </si>
   <si>
-    <t>74,42%</t>
-  </si>
-  <si>
-    <t>86,41%</t>
+    <t>73,58%</t>
+  </si>
+  <si>
+    <t>86,1%</t>
   </si>
   <si>
     <t>85,11%</t>
   </si>
   <si>
-    <t>80,78%</t>
-  </si>
-  <si>
-    <t>88,89%</t>
+    <t>80,73%</t>
+  </si>
+  <si>
+    <t>88,67%</t>
   </si>
   <si>
     <t>100%</t>
@@ -137,106 +137,112 @@
     <t>18,09%</t>
   </si>
   <si>
-    <t>13,21%</t>
+    <t>13,47%</t>
+  </si>
+  <si>
+    <t>23,58%</t>
+  </si>
+  <si>
+    <t>20,64%</t>
+  </si>
+  <si>
+    <t>16,41%</t>
+  </si>
+  <si>
+    <t>24,55%</t>
+  </si>
+  <si>
+    <t>19,46%</t>
+  </si>
+  <si>
+    <t>16,45%</t>
+  </si>
+  <si>
+    <t>22,74%</t>
+  </si>
+  <si>
+    <t>81,91%</t>
+  </si>
+  <si>
+    <t>76,42%</t>
+  </si>
+  <si>
+    <t>86,53%</t>
+  </si>
+  <si>
+    <t>79,36%</t>
+  </si>
+  <si>
+    <t>75,45%</t>
+  </si>
+  <si>
+    <t>83,59%</t>
+  </si>
+  <si>
+    <t>80,54%</t>
+  </si>
+  <si>
+    <t>77,26%</t>
+  </si>
+  <si>
+    <t>83,55%</t>
+  </si>
+  <si>
+    <t>35/44</t>
+  </si>
+  <si>
+    <t>17,67%</t>
+  </si>
+  <si>
+    <t>14,48%</t>
+  </si>
+  <si>
+    <t>21,43%</t>
+  </si>
+  <si>
+    <t>28,46%</t>
+  </si>
+  <si>
+    <t>24,18%</t>
+  </si>
+  <si>
+    <t>32,07%</t>
   </si>
   <si>
     <t>23,31%</t>
   </si>
   <si>
-    <t>20,64%</t>
-  </si>
-  <si>
-    <t>16,68%</t>
-  </si>
-  <si>
-    <t>25,04%</t>
-  </si>
-  <si>
-    <t>19,46%</t>
-  </si>
-  <si>
-    <t>16,27%</t>
-  </si>
-  <si>
-    <t>22,96%</t>
-  </si>
-  <si>
-    <t>81,91%</t>
+    <t>20,67%</t>
+  </si>
+  <si>
+    <t>25,74%</t>
+  </si>
+  <si>
+    <t>82,33%</t>
+  </si>
+  <si>
+    <t>78,57%</t>
+  </si>
+  <si>
+    <t>85,52%</t>
+  </si>
+  <si>
+    <t>71,54%</t>
+  </si>
+  <si>
+    <t>67,93%</t>
+  </si>
+  <si>
+    <t>75,82%</t>
   </si>
   <si>
     <t>76,69%</t>
   </si>
   <si>
-    <t>86,79%</t>
-  </si>
-  <si>
-    <t>79,36%</t>
-  </si>
-  <si>
-    <t>74,96%</t>
-  </si>
-  <si>
-    <t>83,32%</t>
-  </si>
-  <si>
-    <t>80,54%</t>
-  </si>
-  <si>
-    <t>77,04%</t>
-  </si>
-  <si>
-    <t>83,73%</t>
-  </si>
-  <si>
-    <t>35/44</t>
-  </si>
-  <si>
-    <t>17,67%</t>
-  </si>
-  <si>
-    <t>14,37%</t>
-  </si>
-  <si>
-    <t>21,13%</t>
-  </si>
-  <si>
-    <t>28,46%</t>
-  </si>
-  <si>
-    <t>24,11%</t>
-  </si>
-  <si>
-    <t>31,87%</t>
-  </si>
-  <si>
-    <t>20,88%</t>
-  </si>
-  <si>
-    <t>25,67%</t>
-  </si>
-  <si>
-    <t>82,33%</t>
-  </si>
-  <si>
-    <t>78,87%</t>
-  </si>
-  <si>
-    <t>85,63%</t>
-  </si>
-  <si>
-    <t>71,54%</t>
-  </si>
-  <si>
-    <t>68,13%</t>
-  </si>
-  <si>
-    <t>75,89%</t>
-  </si>
-  <si>
-    <t>74,33%</t>
-  </si>
-  <si>
-    <t>79,12%</t>
+    <t>74,26%</t>
+  </si>
+  <si>
+    <t>79,33%</t>
   </si>
   <si>
     <t>45/54</t>
@@ -245,55 +251,55 @@
     <t>23,19%</t>
   </si>
   <si>
-    <t>18,04%</t>
-  </si>
-  <si>
-    <t>27,12%</t>
+    <t>17,31%</t>
+  </si>
+  <si>
+    <t>26,94%</t>
   </si>
   <si>
     <t>37,55%</t>
   </si>
   <si>
-    <t>34,52%</t>
-  </si>
-  <si>
-    <t>40,91%</t>
+    <t>34,4%</t>
+  </si>
+  <si>
+    <t>40,94%</t>
   </si>
   <si>
     <t>30,48%</t>
   </si>
   <si>
-    <t>26,75%</t>
-  </si>
-  <si>
-    <t>33,18%</t>
+    <t>27,31%</t>
+  </si>
+  <si>
+    <t>33,38%</t>
   </si>
   <si>
     <t>76,81%</t>
   </si>
   <si>
-    <t>72,88%</t>
-  </si>
-  <si>
-    <t>81,96%</t>
+    <t>73,06%</t>
+  </si>
+  <si>
+    <t>82,69%</t>
   </si>
   <si>
     <t>62,45%</t>
   </si>
   <si>
-    <t>59,09%</t>
-  </si>
-  <si>
-    <t>65,48%</t>
+    <t>59,06%</t>
+  </si>
+  <si>
+    <t>65,6%</t>
   </si>
   <si>
     <t>69,52%</t>
   </si>
   <si>
-    <t>66,82%</t>
-  </si>
-  <si>
-    <t>73,25%</t>
+    <t>66,62%</t>
+  </si>
+  <si>
+    <t>72,69%</t>
   </si>
   <si>
     <t>55/64</t>
@@ -302,55 +308,55 @@
     <t>29,41%</t>
   </si>
   <si>
-    <t>25,84%</t>
-  </si>
-  <si>
-    <t>33,2%</t>
+    <t>26,04%</t>
+  </si>
+  <si>
+    <t>33,05%</t>
   </si>
   <si>
     <t>43,44%</t>
   </si>
   <si>
-    <t>40,34%</t>
-  </si>
-  <si>
-    <t>46,62%</t>
+    <t>40,36%</t>
+  </si>
+  <si>
+    <t>46,67%</t>
   </si>
   <si>
     <t>36,41%</t>
   </si>
   <si>
-    <t>34,11%</t>
-  </si>
-  <si>
-    <t>38,95%</t>
+    <t>34,02%</t>
+  </si>
+  <si>
+    <t>39,0%</t>
   </si>
   <si>
     <t>70,59%</t>
   </si>
   <si>
-    <t>66,8%</t>
-  </si>
-  <si>
-    <t>74,16%</t>
+    <t>66,95%</t>
+  </si>
+  <si>
+    <t>73,96%</t>
   </si>
   <si>
     <t>56,56%</t>
   </si>
   <si>
-    <t>53,38%</t>
-  </si>
-  <si>
-    <t>59,66%</t>
+    <t>53,33%</t>
+  </si>
+  <si>
+    <t>59,64%</t>
   </si>
   <si>
     <t>63,59%</t>
   </si>
   <si>
-    <t>61,05%</t>
-  </si>
-  <si>
-    <t>65,89%</t>
+    <t>61,0%</t>
+  </si>
+  <si>
+    <t>65,98%</t>
   </si>
   <si>
     <t>65 y más</t>
@@ -359,109 +365,109 @@
     <t>32,71%</t>
   </si>
   <si>
-    <t>29,8%</t>
-  </si>
-  <si>
-    <t>35,81%</t>
+    <t>29,64%</t>
+  </si>
+  <si>
+    <t>35,49%</t>
   </si>
   <si>
     <t>64,32%</t>
   </si>
   <si>
-    <t>59,05%</t>
-  </si>
-  <si>
-    <t>75,75%</t>
+    <t>59,18%</t>
+  </si>
+  <si>
+    <t>74,67%</t>
   </si>
   <si>
     <t>51,53%</t>
   </si>
   <si>
-    <t>47,69%</t>
-  </si>
-  <si>
-    <t>62,79%</t>
+    <t>47,54%</t>
+  </si>
+  <si>
+    <t>61,37%</t>
   </si>
   <si>
     <t>67,29%</t>
   </si>
   <si>
-    <t>64,19%</t>
-  </si>
-  <si>
-    <t>70,2%</t>
+    <t>64,51%</t>
+  </si>
+  <si>
+    <t>70,36%</t>
   </si>
   <si>
     <t>35,68%</t>
   </si>
   <si>
-    <t>24,25%</t>
-  </si>
-  <si>
-    <t>40,95%</t>
+    <t>25,33%</t>
+  </si>
+  <si>
+    <t>40,82%</t>
   </si>
   <si>
     <t>48,47%</t>
   </si>
   <si>
-    <t>37,21%</t>
-  </si>
-  <si>
-    <t>52,31%</t>
+    <t>38,63%</t>
+  </si>
+  <si>
+    <t>52,46%</t>
   </si>
   <si>
     <t>23,35%</t>
   </si>
   <si>
-    <t>21,61%</t>
-  </si>
-  <si>
-    <t>25,0%</t>
+    <t>21,68%</t>
+  </si>
+  <si>
+    <t>25,31%</t>
   </si>
   <si>
     <t>40,26%</t>
   </si>
   <si>
-    <t>37,91%</t>
-  </si>
-  <si>
-    <t>46,47%</t>
+    <t>37,95%</t>
+  </si>
+  <si>
+    <t>46,06%</t>
   </si>
   <si>
     <t>32,33%</t>
   </si>
   <si>
-    <t>30,77%</t>
-  </si>
-  <si>
-    <t>36,55%</t>
+    <t>30,82%</t>
+  </si>
+  <si>
+    <t>35,79%</t>
   </si>
   <si>
     <t>76,65%</t>
   </si>
   <si>
-    <t>75,0%</t>
-  </si>
-  <si>
-    <t>78,39%</t>
+    <t>74,69%</t>
+  </si>
+  <si>
+    <t>78,32%</t>
   </si>
   <si>
     <t>59,74%</t>
   </si>
   <si>
-    <t>53,53%</t>
-  </si>
-  <si>
-    <t>62,09%</t>
+    <t>53,94%</t>
+  </si>
+  <si>
+    <t>62,05%</t>
   </si>
   <si>
     <t>67,67%</t>
   </si>
   <si>
-    <t>63,45%</t>
-  </si>
-  <si>
-    <t>69,23%</t>
+    <t>64,21%</t>
+  </si>
+  <si>
+    <t>69,18%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -876,7 +882,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2EEDACB2-49E8-4DD7-B4E1-1F1042A2A424}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{84D95C30-797D-4519-91D3-BCA0CC404C52}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1340,13 +1346,13 @@
         <v>272209</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>34</v>
+        <v>57</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -1361,13 +1367,13 @@
         <v>458790</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="H11" s="7">
         <v>592</v>
@@ -1376,13 +1382,13 @@
         <v>436701</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="M11" s="7">
         <v>1041</v>
@@ -1391,13 +1397,13 @@
         <v>895490</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>42</v>
+        <v>66</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -1453,7 +1459,7 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
@@ -1465,13 +1471,13 @@
         <v>167879</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="H13" s="7">
         <v>428</v>
@@ -1480,13 +1486,13 @@
         <v>280586</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="M13" s="7">
         <v>592</v>
@@ -1495,13 +1501,13 @@
         <v>448465</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -1516,13 +1522,13 @@
         <v>556111</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="H14" s="7">
         <v>713</v>
@@ -1531,28 +1537,28 @@
         <v>466675</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="M14" s="7">
         <v>1214</v>
       </c>
       <c r="N14" s="7">
-        <v>1022786</v>
+        <v>1022787</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -1594,7 +1600,7 @@
         <v>1806</v>
       </c>
       <c r="N15" s="7">
-        <v>1471251</v>
+        <v>1471252</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>30</v>
@@ -1608,7 +1614,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -1620,13 +1626,13 @@
         <v>176501</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="H16" s="7">
         <v>437</v>
@@ -1635,13 +1641,13 @@
         <v>259378</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="M16" s="7">
         <v>633</v>
@@ -1650,13 +1656,13 @@
         <v>435879</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -1671,13 +1677,13 @@
         <v>423656</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="H17" s="7">
         <v>565</v>
@@ -1686,13 +1692,13 @@
         <v>337685</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="M17" s="7">
         <v>1032</v>
@@ -1701,13 +1707,13 @@
         <v>761341</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -1763,7 +1769,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -1775,13 +1781,13 @@
         <v>228240</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="H19" s="7">
         <v>1038</v>
@@ -1790,13 +1796,13 @@
         <v>660373</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="M19" s="7">
         <v>1384</v>
@@ -1805,13 +1811,13 @@
         <v>888614</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -1823,16 +1829,16 @@
         <v>682</v>
       </c>
       <c r="D20" s="7">
-        <v>469515</v>
+        <v>469514</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="H20" s="7">
         <v>670</v>
@@ -1841,13 +1847,13 @@
         <v>366264</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="M20" s="7">
         <v>1352</v>
@@ -1856,13 +1862,13 @@
         <v>835778</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -1874,7 +1880,7 @@
         <v>1028</v>
       </c>
       <c r="D21" s="7">
-        <v>697755</v>
+        <v>697754</v>
       </c>
       <c r="E21" s="7" t="s">
         <v>30</v>
@@ -1930,13 +1936,13 @@
         <v>790501</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="H22" s="7">
         <v>2292</v>
@@ -1945,13 +1951,13 @@
         <v>1544306</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="M22" s="7">
         <v>3165</v>
@@ -1960,13 +1966,13 @@
         <v>2334807</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -1981,13 +1987,13 @@
         <v>2594727</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="H23" s="7">
         <v>3075</v>
@@ -1996,28 +2002,28 @@
         <v>2291275</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="M23" s="7">
         <v>5578</v>
       </c>
       <c r="N23" s="7">
-        <v>4886001</v>
+        <v>4886002</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -2059,7 +2065,7 @@
         <v>8743</v>
       </c>
       <c r="N24" s="7">
-        <v>7220808</v>
+        <v>7220809</v>
       </c>
       <c r="O24" s="7" t="s">
         <v>30</v>
@@ -2073,7 +2079,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P16A_2_R3-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P16A_2_R3-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{FD43D1BD-B997-4C82-BCCB-D5A6F4E377A3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{E4A9E6D5-1FF4-4E4F-AB12-BEEBDF3BC884}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{5BF22FF4-F1B5-4FED-80F6-4C34109CB476}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{19C2FFEA-FDF5-4D7A-81BB-621159E0E6F6}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="237" uniqueCount="145">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="268" uniqueCount="164">
   <si>
     <t>Población que ha consumido medicinas para el dolor en las dos últimas semanas en 2023 (Tasa respuesta: 100,0%)</t>
   </si>
@@ -65,409 +65,466 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>16/24</t>
+    <t>16-24</t>
   </si>
   <si>
     <t>Sí</t>
   </si>
   <si>
-    <t>11,1%</t>
-  </si>
-  <si>
-    <t>6,18%</t>
-  </si>
-  <si>
-    <t>16,71%</t>
-  </si>
-  <si>
-    <t>18,93%</t>
-  </si>
-  <si>
-    <t>13,9%</t>
+    <t>11,61%</t>
+  </si>
+  <si>
+    <t>6,35%</t>
+  </si>
+  <si>
+    <t>18,02%</t>
+  </si>
+  <si>
+    <t>18,99%</t>
+  </si>
+  <si>
+    <t>13,88%</t>
+  </si>
+  <si>
+    <t>26,23%</t>
+  </si>
+  <si>
+    <t>14,85%</t>
+  </si>
+  <si>
+    <t>11,31%</t>
+  </si>
+  <si>
+    <t>19,47%</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>88,39%</t>
+  </si>
+  <si>
+    <t>81,98%</t>
+  </si>
+  <si>
+    <t>93,65%</t>
+  </si>
+  <si>
+    <t>81,01%</t>
+  </si>
+  <si>
+    <t>73,77%</t>
+  </si>
+  <si>
+    <t>86,12%</t>
+  </si>
+  <si>
+    <t>85,15%</t>
+  </si>
+  <si>
+    <t>80,53%</t>
+  </si>
+  <si>
+    <t>88,69%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>25-34</t>
+  </si>
+  <si>
+    <t>19,02%</t>
+  </si>
+  <si>
+    <t>14,22%</t>
+  </si>
+  <si>
+    <t>24,72%</t>
+  </si>
+  <si>
+    <t>19,04%</t>
+  </si>
+  <si>
+    <t>11,82%</t>
+  </si>
+  <si>
+    <t>23,88%</t>
+  </si>
+  <si>
+    <t>19,03%</t>
+  </si>
+  <si>
+    <t>14,51%</t>
+  </si>
+  <si>
+    <t>22,62%</t>
+  </si>
+  <si>
+    <t>80,98%</t>
+  </si>
+  <si>
+    <t>75,28%</t>
+  </si>
+  <si>
+    <t>85,78%</t>
+  </si>
+  <si>
+    <t>80,96%</t>
+  </si>
+  <si>
+    <t>76,12%</t>
+  </si>
+  <si>
+    <t>88,18%</t>
+  </si>
+  <si>
+    <t>80,97%</t>
+  </si>
+  <si>
+    <t>77,38%</t>
+  </si>
+  <si>
+    <t>85,49%</t>
+  </si>
+  <si>
+    <t>35-44</t>
+  </si>
+  <si>
+    <t>18,22%</t>
+  </si>
+  <si>
+    <t>14,87%</t>
+  </si>
+  <si>
+    <t>22,16%</t>
+  </si>
+  <si>
+    <t>27,69%</t>
+  </si>
+  <si>
+    <t>20,54%</t>
+  </si>
+  <si>
+    <t>31,77%</t>
+  </si>
+  <si>
+    <t>23,19%</t>
+  </si>
+  <si>
+    <t>19,96%</t>
+  </si>
+  <si>
+    <t>25,81%</t>
+  </si>
+  <si>
+    <t>81,78%</t>
+  </si>
+  <si>
+    <t>77,84%</t>
+  </si>
+  <si>
+    <t>85,13%</t>
+  </si>
+  <si>
+    <t>72,31%</t>
+  </si>
+  <si>
+    <t>68,23%</t>
+  </si>
+  <si>
+    <t>79,46%</t>
+  </si>
+  <si>
+    <t>76,81%</t>
+  </si>
+  <si>
+    <t>74,19%</t>
+  </si>
+  <si>
+    <t>80,04%</t>
+  </si>
+  <si>
+    <t>45-54</t>
+  </si>
+  <si>
+    <t>18,11%</t>
+  </si>
+  <si>
+    <t>7,94%</t>
+  </si>
+  <si>
+    <t>26,01%</t>
+  </si>
+  <si>
+    <t>36,48%</t>
+  </si>
+  <si>
+    <t>30,85%</t>
+  </si>
+  <si>
+    <t>40,21%</t>
+  </si>
+  <si>
+    <t>26,29%</t>
+  </si>
+  <si>
+    <t>16,98%</t>
+  </si>
+  <si>
+    <t>32,17%</t>
+  </si>
+  <si>
+    <t>81,89%</t>
+  </si>
+  <si>
+    <t>73,99%</t>
+  </si>
+  <si>
+    <t>92,06%</t>
+  </si>
+  <si>
+    <t>63,52%</t>
+  </si>
+  <si>
+    <t>59,79%</t>
+  </si>
+  <si>
+    <t>69,15%</t>
+  </si>
+  <si>
+    <t>73,71%</t>
+  </si>
+  <si>
+    <t>67,83%</t>
+  </si>
+  <si>
+    <t>83,02%</t>
+  </si>
+  <si>
+    <t>55-64</t>
+  </si>
+  <si>
+    <t>29,82%</t>
   </si>
   <si>
     <t>26,42%</t>
   </si>
   <si>
-    <t>14,89%</t>
-  </si>
-  <si>
-    <t>11,33%</t>
-  </si>
-  <si>
-    <t>19,27%</t>
-  </si>
-  <si>
-    <t>No</t>
-  </si>
-  <si>
-    <t>88,9%</t>
-  </si>
-  <si>
-    <t>83,29%</t>
-  </si>
-  <si>
-    <t>93,82%</t>
-  </si>
-  <si>
-    <t>81,07%</t>
+    <t>33,57%</t>
+  </si>
+  <si>
+    <t>43,54%</t>
+  </si>
+  <si>
+    <t>40,47%</t>
+  </si>
+  <si>
+    <t>46,7%</t>
+  </si>
+  <si>
+    <t>36,6%</t>
+  </si>
+  <si>
+    <t>34,25%</t>
+  </si>
+  <si>
+    <t>39,27%</t>
+  </si>
+  <si>
+    <t>70,18%</t>
+  </si>
+  <si>
+    <t>66,43%</t>
   </si>
   <si>
     <t>73,58%</t>
   </si>
   <si>
-    <t>86,1%</t>
-  </si>
-  <si>
-    <t>85,11%</t>
-  </si>
-  <si>
-    <t>80,73%</t>
-  </si>
-  <si>
-    <t>88,67%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>25/34</t>
-  </si>
-  <si>
-    <t>18,09%</t>
-  </si>
-  <si>
-    <t>13,47%</t>
-  </si>
-  <si>
-    <t>23,58%</t>
-  </si>
-  <si>
-    <t>20,64%</t>
-  </si>
-  <si>
-    <t>16,41%</t>
-  </si>
-  <si>
-    <t>24,55%</t>
-  </si>
-  <si>
-    <t>19,46%</t>
-  </si>
-  <si>
-    <t>16,45%</t>
-  </si>
-  <si>
-    <t>22,74%</t>
-  </si>
-  <si>
-    <t>81,91%</t>
-  </si>
-  <si>
-    <t>76,42%</t>
-  </si>
-  <si>
-    <t>86,53%</t>
-  </si>
-  <si>
-    <t>79,36%</t>
-  </si>
-  <si>
-    <t>75,45%</t>
-  </si>
-  <si>
-    <t>83,59%</t>
-  </si>
-  <si>
-    <t>80,54%</t>
-  </si>
-  <si>
-    <t>77,26%</t>
-  </si>
-  <si>
-    <t>83,55%</t>
-  </si>
-  <si>
-    <t>35/44</t>
-  </si>
-  <si>
-    <t>17,67%</t>
-  </si>
-  <si>
-    <t>14,48%</t>
-  </si>
-  <si>
-    <t>21,43%</t>
-  </si>
-  <si>
-    <t>28,46%</t>
-  </si>
-  <si>
-    <t>24,18%</t>
-  </si>
-  <si>
-    <t>32,07%</t>
-  </si>
-  <si>
-    <t>23,31%</t>
-  </si>
-  <si>
-    <t>20,67%</t>
-  </si>
-  <si>
-    <t>25,74%</t>
-  </si>
-  <si>
-    <t>82,33%</t>
-  </si>
-  <si>
-    <t>78,57%</t>
-  </si>
-  <si>
-    <t>85,52%</t>
-  </si>
-  <si>
-    <t>71,54%</t>
-  </si>
-  <si>
-    <t>67,93%</t>
-  </si>
-  <si>
-    <t>75,82%</t>
-  </si>
-  <si>
-    <t>76,69%</t>
-  </si>
-  <si>
-    <t>74,26%</t>
-  </si>
-  <si>
-    <t>79,33%</t>
-  </si>
-  <si>
-    <t>45/54</t>
-  </si>
-  <si>
-    <t>23,19%</t>
-  </si>
-  <si>
-    <t>17,31%</t>
-  </si>
-  <si>
-    <t>26,94%</t>
-  </si>
-  <si>
-    <t>37,55%</t>
-  </si>
-  <si>
-    <t>34,4%</t>
-  </si>
-  <si>
-    <t>40,94%</t>
-  </si>
-  <si>
-    <t>30,48%</t>
+    <t>56,46%</t>
+  </si>
+  <si>
+    <t>53,3%</t>
+  </si>
+  <si>
+    <t>59,53%</t>
+  </si>
+  <si>
+    <t>63,4%</t>
+  </si>
+  <si>
+    <t>60,73%</t>
+  </si>
+  <si>
+    <t>65,75%</t>
+  </si>
+  <si>
+    <t>65-74</t>
   </si>
   <si>
     <t>27,31%</t>
   </si>
   <si>
-    <t>33,38%</t>
-  </si>
-  <si>
-    <t>76,81%</t>
-  </si>
-  <si>
-    <t>73,06%</t>
-  </si>
-  <si>
-    <t>82,69%</t>
-  </si>
-  <si>
-    <t>62,45%</t>
-  </si>
-  <si>
-    <t>59,06%</t>
-  </si>
-  <si>
-    <t>65,6%</t>
-  </si>
-  <si>
-    <t>69,52%</t>
-  </si>
-  <si>
-    <t>66,62%</t>
+    <t>24,08%</t>
+  </si>
+  <si>
+    <t>31,26%</t>
+  </si>
+  <si>
+    <t>68,57%</t>
+  </si>
+  <si>
+    <t>51,57%</t>
+  </si>
+  <si>
+    <t>88,56%</t>
+  </si>
+  <si>
+    <t>53,01%</t>
+  </si>
+  <si>
+    <t>39,71%</t>
+  </si>
+  <si>
+    <t>78,24%</t>
   </si>
   <si>
     <t>72,69%</t>
   </si>
   <si>
-    <t>55/64</t>
-  </si>
-  <si>
-    <t>29,41%</t>
-  </si>
-  <si>
-    <t>26,04%</t>
-  </si>
-  <si>
-    <t>33,05%</t>
-  </si>
-  <si>
-    <t>43,44%</t>
-  </si>
-  <si>
-    <t>40,36%</t>
-  </si>
-  <si>
-    <t>46,67%</t>
+    <t>68,74%</t>
+  </si>
+  <si>
+    <t>75,92%</t>
+  </si>
+  <si>
+    <t>31,43%</t>
+  </si>
+  <si>
+    <t>11,44%</t>
+  </si>
+  <si>
+    <t>48,43%</t>
+  </si>
+  <si>
+    <t>46,99%</t>
+  </si>
+  <si>
+    <t>21,76%</t>
+  </si>
+  <si>
+    <t>60,29%</t>
+  </si>
+  <si>
+    <t>75 o más</t>
+  </si>
+  <si>
+    <t>40,14%</t>
+  </si>
+  <si>
+    <t>35,13%</t>
+  </si>
+  <si>
+    <t>44,81%</t>
+  </si>
+  <si>
+    <t>67,0%</t>
+  </si>
+  <si>
+    <t>63,59%</t>
+  </si>
+  <si>
+    <t>69,88%</t>
+  </si>
+  <si>
+    <t>56,28%</t>
+  </si>
+  <si>
+    <t>53,48%</t>
+  </si>
+  <si>
+    <t>58,97%</t>
+  </si>
+  <si>
+    <t>59,86%</t>
+  </si>
+  <si>
+    <t>55,19%</t>
+  </si>
+  <si>
+    <t>64,87%</t>
+  </si>
+  <si>
+    <t>33,0%</t>
+  </si>
+  <si>
+    <t>30,12%</t>
   </si>
   <si>
     <t>36,41%</t>
   </si>
   <si>
-    <t>34,02%</t>
-  </si>
-  <si>
-    <t>39,0%</t>
-  </si>
-  <si>
-    <t>70,59%</t>
-  </si>
-  <si>
-    <t>66,95%</t>
-  </si>
-  <si>
-    <t>73,96%</t>
-  </si>
-  <si>
-    <t>56,56%</t>
-  </si>
-  <si>
-    <t>53,33%</t>
-  </si>
-  <si>
-    <t>59,64%</t>
-  </si>
-  <si>
-    <t>63,59%</t>
-  </si>
-  <si>
-    <t>61,0%</t>
-  </si>
-  <si>
-    <t>65,98%</t>
-  </si>
-  <si>
-    <t>65 y más</t>
-  </si>
-  <si>
-    <t>32,71%</t>
-  </si>
-  <si>
-    <t>29,64%</t>
-  </si>
-  <si>
-    <t>35,49%</t>
-  </si>
-  <si>
-    <t>64,32%</t>
-  </si>
-  <si>
-    <t>59,18%</t>
-  </si>
-  <si>
-    <t>74,67%</t>
-  </si>
-  <si>
-    <t>51,53%</t>
-  </si>
-  <si>
-    <t>47,54%</t>
-  </si>
-  <si>
-    <t>61,37%</t>
-  </si>
-  <si>
-    <t>67,29%</t>
-  </si>
-  <si>
-    <t>64,51%</t>
-  </si>
-  <si>
-    <t>70,36%</t>
-  </si>
-  <si>
-    <t>35,68%</t>
-  </si>
-  <si>
-    <t>25,33%</t>
-  </si>
-  <si>
-    <t>40,82%</t>
-  </si>
-  <si>
-    <t>48,47%</t>
-  </si>
-  <si>
-    <t>38,63%</t>
-  </si>
-  <si>
-    <t>52,46%</t>
-  </si>
-  <si>
-    <t>23,35%</t>
-  </si>
-  <si>
-    <t>21,68%</t>
-  </si>
-  <si>
-    <t>25,31%</t>
-  </si>
-  <si>
-    <t>40,26%</t>
-  </si>
-  <si>
-    <t>37,95%</t>
-  </si>
-  <si>
-    <t>46,06%</t>
-  </si>
-  <si>
-    <t>32,33%</t>
-  </si>
-  <si>
-    <t>30,82%</t>
-  </si>
-  <si>
-    <t>35,79%</t>
-  </si>
-  <si>
-    <t>76,65%</t>
-  </si>
-  <si>
-    <t>74,69%</t>
-  </si>
-  <si>
-    <t>78,32%</t>
-  </si>
-  <si>
-    <t>59,74%</t>
-  </si>
-  <si>
-    <t>53,94%</t>
-  </si>
-  <si>
-    <t>62,05%</t>
-  </si>
-  <si>
-    <t>67,67%</t>
-  </si>
-  <si>
-    <t>64,21%</t>
-  </si>
-  <si>
-    <t>69,18%</t>
+    <t>43,72%</t>
+  </si>
+  <si>
+    <t>41,03%</t>
+  </si>
+  <si>
+    <t>46,52%</t>
+  </si>
+  <si>
+    <t>22,17%</t>
+  </si>
+  <si>
+    <t>17,78%</t>
+  </si>
+  <si>
+    <t>24,63%</t>
+  </si>
+  <si>
+    <t>41,0%</t>
+  </si>
+  <si>
+    <t>36,74%</t>
+  </si>
+  <si>
+    <t>50,76%</t>
+  </si>
+  <si>
+    <t>31,91%</t>
+  </si>
+  <si>
+    <t>28,71%</t>
+  </si>
+  <si>
+    <t>37,94%</t>
+  </si>
+  <si>
+    <t>77,83%</t>
+  </si>
+  <si>
+    <t>75,37%</t>
+  </si>
+  <si>
+    <t>82,22%</t>
+  </si>
+  <si>
+    <t>59,0%</t>
+  </si>
+  <si>
+    <t>49,24%</t>
+  </si>
+  <si>
+    <t>63,26%</t>
+  </si>
+  <si>
+    <t>68,09%</t>
+  </si>
+  <si>
+    <t>62,06%</t>
+  </si>
+  <si>
+    <t>71,29%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -882,8 +939,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{84D95C30-797D-4519-91D3-BCA0CC404C52}">
-  <dimension ref="A1:Q25"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{76377F20-5FA0-4F72-B13B-E9A9307B7D2F}">
+  <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -1003,7 +1060,7 @@
         <v>19</v>
       </c>
       <c r="D4" s="7">
-        <v>41922</v>
+        <v>46435</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>11</v>
@@ -1018,7 +1075,7 @@
         <v>39</v>
       </c>
       <c r="I4" s="7">
-        <v>67179</v>
+        <v>59490</v>
       </c>
       <c r="J4" s="7" t="s">
         <v>14</v>
@@ -1033,7 +1090,7 @@
         <v>58</v>
       </c>
       <c r="N4" s="7">
-        <v>109101</v>
+        <v>105925</v>
       </c>
       <c r="O4" s="7" t="s">
         <v>17</v>
@@ -1054,7 +1111,7 @@
         <v>153</v>
       </c>
       <c r="D5" s="7">
-        <v>335757</v>
+        <v>353552</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>21</v>
@@ -1069,7 +1126,7 @@
         <v>168</v>
       </c>
       <c r="I5" s="7">
-        <v>287778</v>
+        <v>253710</v>
       </c>
       <c r="J5" s="7" t="s">
         <v>24</v>
@@ -1084,7 +1141,7 @@
         <v>321</v>
       </c>
       <c r="N5" s="7">
-        <v>623535</v>
+        <v>607262</v>
       </c>
       <c r="O5" s="7" t="s">
         <v>27</v>
@@ -1105,7 +1162,7 @@
         <v>172</v>
       </c>
       <c r="D6" s="7">
-        <v>377679</v>
+        <v>399987</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>30</v>
@@ -1120,7 +1177,7 @@
         <v>207</v>
       </c>
       <c r="I6" s="7">
-        <v>354957</v>
+        <v>313200</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>30</v>
@@ -1135,7 +1192,7 @@
         <v>379</v>
       </c>
       <c r="N6" s="7">
-        <v>732636</v>
+        <v>713187</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>30</v>
@@ -1158,7 +1215,7 @@
         <v>51</v>
       </c>
       <c r="D7" s="7">
-        <v>77497</v>
+        <v>80559</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>32</v>
@@ -1173,7 +1230,7 @@
         <v>94</v>
       </c>
       <c r="I7" s="7">
-        <v>103042</v>
+        <v>97484</v>
       </c>
       <c r="J7" s="7" t="s">
         <v>35</v>
@@ -1188,7 +1245,7 @@
         <v>145</v>
       </c>
       <c r="N7" s="7">
-        <v>180539</v>
+        <v>178043</v>
       </c>
       <c r="O7" s="7" t="s">
         <v>38</v>
@@ -1209,7 +1266,7 @@
         <v>251</v>
       </c>
       <c r="D8" s="7">
-        <v>350899</v>
+        <v>342988</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>41</v>
@@ -1224,7 +1281,7 @@
         <v>367</v>
       </c>
       <c r="I8" s="7">
-        <v>396173</v>
+        <v>414609</v>
       </c>
       <c r="J8" s="7" t="s">
         <v>44</v>
@@ -1239,7 +1296,7 @@
         <v>618</v>
       </c>
       <c r="N8" s="7">
-        <v>747072</v>
+        <v>757597</v>
       </c>
       <c r="O8" s="7" t="s">
         <v>47</v>
@@ -1260,7 +1317,7 @@
         <v>302</v>
       </c>
       <c r="D9" s="7">
-        <v>428396</v>
+        <v>423547</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>30</v>
@@ -1275,7 +1332,7 @@
         <v>461</v>
       </c>
       <c r="I9" s="7">
-        <v>499215</v>
+        <v>512093</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>30</v>
@@ -1290,7 +1347,7 @@
         <v>763</v>
       </c>
       <c r="N9" s="7">
-        <v>927611</v>
+        <v>935640</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>30</v>
@@ -1313,7 +1370,7 @@
         <v>97</v>
       </c>
       <c r="D10" s="7">
-        <v>98462</v>
+        <v>97735</v>
       </c>
       <c r="E10" s="7" t="s">
         <v>51</v>
@@ -1328,7 +1385,7 @@
         <v>256</v>
       </c>
       <c r="I10" s="7">
-        <v>173746</v>
+        <v>163912</v>
       </c>
       <c r="J10" s="7" t="s">
         <v>54</v>
@@ -1343,7 +1400,7 @@
         <v>353</v>
       </c>
       <c r="N10" s="7">
-        <v>272209</v>
+        <v>261647</v>
       </c>
       <c r="O10" s="7" t="s">
         <v>57</v>
@@ -1364,7 +1421,7 @@
         <v>449</v>
       </c>
       <c r="D11" s="7">
-        <v>458790</v>
+        <v>438603</v>
       </c>
       <c r="E11" s="7" t="s">
         <v>60</v>
@@ -1379,7 +1436,7 @@
         <v>592</v>
       </c>
       <c r="I11" s="7">
-        <v>436701</v>
+        <v>428090</v>
       </c>
       <c r="J11" s="7" t="s">
         <v>63</v>
@@ -1394,7 +1451,7 @@
         <v>1041</v>
       </c>
       <c r="N11" s="7">
-        <v>895490</v>
+        <v>866693</v>
       </c>
       <c r="O11" s="7" t="s">
         <v>66</v>
@@ -1415,7 +1472,7 @@
         <v>546</v>
       </c>
       <c r="D12" s="7">
-        <v>557252</v>
+        <v>536338</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>30</v>
@@ -1430,7 +1487,7 @@
         <v>848</v>
       </c>
       <c r="I12" s="7">
-        <v>610447</v>
+        <v>592002</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>30</v>
@@ -1445,7 +1502,7 @@
         <v>1394</v>
       </c>
       <c r="N12" s="7">
-        <v>1167699</v>
+        <v>1128340</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>30</v>
@@ -1468,7 +1525,7 @@
         <v>164</v>
       </c>
       <c r="D13" s="7">
-        <v>167879</v>
+        <v>160751</v>
       </c>
       <c r="E13" s="7" t="s">
         <v>70</v>
@@ -1483,7 +1540,7 @@
         <v>428</v>
       </c>
       <c r="I13" s="7">
-        <v>280586</v>
+        <v>260063</v>
       </c>
       <c r="J13" s="7" t="s">
         <v>73</v>
@@ -1498,7 +1555,7 @@
         <v>592</v>
       </c>
       <c r="N13" s="7">
-        <v>448465</v>
+        <v>420814</v>
       </c>
       <c r="O13" s="7" t="s">
         <v>76</v>
@@ -1519,7 +1576,7 @@
         <v>501</v>
       </c>
       <c r="D14" s="7">
-        <v>556111</v>
+        <v>727035</v>
       </c>
       <c r="E14" s="7" t="s">
         <v>79</v>
@@ -1534,7 +1591,7 @@
         <v>713</v>
       </c>
       <c r="I14" s="7">
-        <v>466675</v>
+        <v>452818</v>
       </c>
       <c r="J14" s="7" t="s">
         <v>82</v>
@@ -1549,7 +1606,7 @@
         <v>1214</v>
       </c>
       <c r="N14" s="7">
-        <v>1022787</v>
+        <v>1179853</v>
       </c>
       <c r="O14" s="7" t="s">
         <v>85</v>
@@ -1570,7 +1627,7 @@
         <v>665</v>
       </c>
       <c r="D15" s="7">
-        <v>723990</v>
+        <v>887786</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>30</v>
@@ -1585,7 +1642,7 @@
         <v>1141</v>
       </c>
       <c r="I15" s="7">
-        <v>747261</v>
+        <v>712881</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>30</v>
@@ -1600,7 +1657,7 @@
         <v>1806</v>
       </c>
       <c r="N15" s="7">
-        <v>1471252</v>
+        <v>1600667</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>30</v>
@@ -1623,7 +1680,7 @@
         <v>196</v>
       </c>
       <c r="D16" s="7">
-        <v>176501</v>
+        <v>167352</v>
       </c>
       <c r="E16" s="7" t="s">
         <v>89</v>
@@ -1638,7 +1695,7 @@
         <v>437</v>
       </c>
       <c r="I16" s="7">
-        <v>259378</v>
+        <v>238581</v>
       </c>
       <c r="J16" s="7" t="s">
         <v>92</v>
@@ -1653,7 +1710,7 @@
         <v>633</v>
       </c>
       <c r="N16" s="7">
-        <v>435879</v>
+        <v>405932</v>
       </c>
       <c r="O16" s="7" t="s">
         <v>95</v>
@@ -1674,7 +1731,7 @@
         <v>467</v>
       </c>
       <c r="D17" s="7">
-        <v>423656</v>
+        <v>393882</v>
       </c>
       <c r="E17" s="7" t="s">
         <v>98</v>
@@ -1689,7 +1746,7 @@
         <v>565</v>
       </c>
       <c r="I17" s="7">
-        <v>337685</v>
+        <v>309324</v>
       </c>
       <c r="J17" s="7" t="s">
         <v>101</v>
@@ -1704,7 +1761,7 @@
         <v>1032</v>
       </c>
       <c r="N17" s="7">
-        <v>761341</v>
+        <v>703207</v>
       </c>
       <c r="O17" s="7" t="s">
         <v>104</v>
@@ -1725,7 +1782,7 @@
         <v>663</v>
       </c>
       <c r="D18" s="7">
-        <v>600157</v>
+        <v>561234</v>
       </c>
       <c r="E18" s="7" t="s">
         <v>30</v>
@@ -1740,7 +1797,7 @@
         <v>1002</v>
       </c>
       <c r="I18" s="7">
-        <v>597063</v>
+        <v>547905</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>30</v>
@@ -1755,7 +1812,7 @@
         <v>1665</v>
       </c>
       <c r="N18" s="7">
-        <v>1197220</v>
+        <v>1109139</v>
       </c>
       <c r="O18" s="7" t="s">
         <v>30</v>
@@ -1775,10 +1832,10 @@
         <v>10</v>
       </c>
       <c r="C19" s="7">
-        <v>346</v>
+        <v>156</v>
       </c>
       <c r="D19" s="7">
-        <v>228240</v>
+        <v>100556</v>
       </c>
       <c r="E19" s="7" t="s">
         <v>108</v>
@@ -1790,10 +1847,10 @@
         <v>110</v>
       </c>
       <c r="H19" s="7">
-        <v>1038</v>
+        <v>436</v>
       </c>
       <c r="I19" s="7">
-        <v>660373</v>
+        <v>417128</v>
       </c>
       <c r="J19" s="7" t="s">
         <v>111</v>
@@ -1805,10 +1862,10 @@
         <v>113</v>
       </c>
       <c r="M19" s="7">
-        <v>1384</v>
+        <v>592</v>
       </c>
       <c r="N19" s="7">
-        <v>888614</v>
+        <v>517683</v>
       </c>
       <c r="O19" s="7" t="s">
         <v>114</v>
@@ -1826,10 +1883,10 @@
         <v>20</v>
       </c>
       <c r="C20" s="7">
-        <v>682</v>
+        <v>414</v>
       </c>
       <c r="D20" s="7">
-        <v>469514</v>
+        <v>267609</v>
       </c>
       <c r="E20" s="7" t="s">
         <v>117</v>
@@ -1841,10 +1898,10 @@
         <v>119</v>
       </c>
       <c r="H20" s="7">
-        <v>670</v>
+        <v>391</v>
       </c>
       <c r="I20" s="7">
-        <v>366264</v>
+        <v>191240</v>
       </c>
       <c r="J20" s="7" t="s">
         <v>120</v>
@@ -1856,10 +1913,10 @@
         <v>122</v>
       </c>
       <c r="M20" s="7">
-        <v>1352</v>
+        <v>805</v>
       </c>
       <c r="N20" s="7">
-        <v>835778</v>
+        <v>458850</v>
       </c>
       <c r="O20" s="7" t="s">
         <v>123</v>
@@ -1877,10 +1934,10 @@
         <v>3</v>
       </c>
       <c r="C21" s="7">
-        <v>1028</v>
+        <v>570</v>
       </c>
       <c r="D21" s="7">
-        <v>697754</v>
+        <v>368165</v>
       </c>
       <c r="E21" s="7" t="s">
         <v>30</v>
@@ -1892,10 +1949,10 @@
         <v>30</v>
       </c>
       <c r="H21" s="7">
-        <v>1708</v>
+        <v>827</v>
       </c>
       <c r="I21" s="7">
-        <v>1026637</v>
+        <v>608368</v>
       </c>
       <c r="J21" s="7" t="s">
         <v>30</v>
@@ -1907,10 +1964,10 @@
         <v>30</v>
       </c>
       <c r="M21" s="7">
-        <v>2736</v>
+        <v>1397</v>
       </c>
       <c r="N21" s="7">
-        <v>1724392</v>
+        <v>976533</v>
       </c>
       <c r="O21" s="7" t="s">
         <v>30</v>
@@ -1924,55 +1981,55 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>3</v>
+        <v>126</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C22" s="7">
-        <v>873</v>
+        <v>190</v>
       </c>
       <c r="D22" s="7">
-        <v>790501</v>
+        <v>113511</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="H22" s="7">
-        <v>2292</v>
+        <v>602</v>
       </c>
       <c r="I22" s="7">
-        <v>1544306</v>
+        <v>285297</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="M22" s="7">
-        <v>3165</v>
+        <v>792</v>
       </c>
       <c r="N22" s="7">
-        <v>2334807</v>
+        <v>398808</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -1981,49 +2038,49 @@
         <v>20</v>
       </c>
       <c r="C23" s="7">
-        <v>2503</v>
+        <v>268</v>
       </c>
       <c r="D23" s="7">
-        <v>2594727</v>
+        <v>169248</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="H23" s="7">
-        <v>3075</v>
+        <v>279</v>
       </c>
       <c r="I23" s="7">
-        <v>2291275</v>
+        <v>140534</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="M23" s="7">
-        <v>5578</v>
+        <v>547</v>
       </c>
       <c r="N23" s="7">
-        <v>4886002</v>
+        <v>309782</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -2032,63 +2089,219 @@
         <v>3</v>
       </c>
       <c r="C24" s="7">
+        <v>458</v>
+      </c>
+      <c r="D24" s="7">
+        <v>282759</v>
+      </c>
+      <c r="E24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H24" s="7">
+        <v>881</v>
+      </c>
+      <c r="I24" s="7">
+        <v>425831</v>
+      </c>
+      <c r="J24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="K24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="L24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="M24" s="7">
+        <v>1339</v>
+      </c>
+      <c r="N24" s="7">
+        <v>708590</v>
+      </c>
+      <c r="O24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="P24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q24" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A25" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B25" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C25" s="7">
+        <v>873</v>
+      </c>
+      <c r="D25" s="7">
+        <v>766900</v>
+      </c>
+      <c r="E25" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="G25" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="H25" s="7">
+        <v>2292</v>
+      </c>
+      <c r="I25" s="7">
+        <v>1521954</v>
+      </c>
+      <c r="J25" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="K25" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="L25" s="7" t="s">
+        <v>150</v>
+      </c>
+      <c r="M25" s="7">
+        <v>3165</v>
+      </c>
+      <c r="N25" s="7">
+        <v>2288854</v>
+      </c>
+      <c r="O25" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="P25" s="7" t="s">
+        <v>152</v>
+      </c>
+      <c r="Q25" s="7" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A26" s="1"/>
+      <c r="B26" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C26" s="7">
+        <v>2503</v>
+      </c>
+      <c r="D26" s="7">
+        <v>2692917</v>
+      </c>
+      <c r="E26" s="7" t="s">
+        <v>154</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>155</v>
+      </c>
+      <c r="G26" s="7" t="s">
+        <v>156</v>
+      </c>
+      <c r="H26" s="7">
+        <v>3075</v>
+      </c>
+      <c r="I26" s="7">
+        <v>2190326</v>
+      </c>
+      <c r="J26" s="7" t="s">
+        <v>157</v>
+      </c>
+      <c r="K26" s="7" t="s">
+        <v>158</v>
+      </c>
+      <c r="L26" s="7" t="s">
+        <v>159</v>
+      </c>
+      <c r="M26" s="7">
+        <v>5578</v>
+      </c>
+      <c r="N26" s="7">
+        <v>4883243</v>
+      </c>
+      <c r="O26" s="7" t="s">
+        <v>160</v>
+      </c>
+      <c r="P26" s="7" t="s">
+        <v>161</v>
+      </c>
+      <c r="Q26" s="7" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A27" s="1"/>
+      <c r="B27" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C27" s="7">
         <v>3376</v>
       </c>
-      <c r="D24" s="7">
-        <v>3385228</v>
-      </c>
-      <c r="E24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H24" s="7">
+      <c r="D27" s="7">
+        <v>3459817</v>
+      </c>
+      <c r="E27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H27" s="7">
         <v>5367</v>
       </c>
-      <c r="I24" s="7">
-        <v>3835581</v>
-      </c>
-      <c r="J24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="K24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="M24" s="7">
+      <c r="I27" s="7">
+        <v>3712280</v>
+      </c>
+      <c r="J27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="K27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="L27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="M27" s="7">
         <v>8743</v>
       </c>
-      <c r="N24" s="7">
-        <v>7220809</v>
-      </c>
-      <c r="O24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="P24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A25" t="s">
-        <v>144</v>
+      <c r="N27" s="7">
+        <v>7172097</v>
+      </c>
+      <c r="O27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="P27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q27" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>163</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="12">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
     <mergeCell ref="A16:A18"/>
     <mergeCell ref="A19:A21"/>
     <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A25:A27"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
